--- a/data/pca/factorExposure/factorExposure_2016-05-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01002752410697863</v>
+        <v>0.01284063646891409</v>
       </c>
       <c r="C2">
-        <v>-0.05551533164438354</v>
+        <v>0.03946758584035308</v>
       </c>
       <c r="D2">
-        <v>0.03999843300637938</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05449582119833405</v>
+      </c>
+      <c r="E2">
+        <v>0.0900462633697674</v>
+      </c>
+      <c r="F2">
+        <v>-0.08439812651439232</v>
+      </c>
+      <c r="G2">
+        <v>-0.03176635589802877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04052536058053375</v>
+        <v>0.02535893312500082</v>
       </c>
       <c r="C3">
-        <v>-0.1200121640929512</v>
+        <v>0.06739618264912012</v>
       </c>
       <c r="D3">
-        <v>0.09260211121862276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07478757117035555</v>
+      </c>
+      <c r="E3">
+        <v>0.06906348174711507</v>
+      </c>
+      <c r="F3">
+        <v>0.02686735277533506</v>
+      </c>
+      <c r="G3">
+        <v>-0.05459902701848568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06012322525538254</v>
+        <v>0.05838843838833157</v>
       </c>
       <c r="C4">
-        <v>-0.06120905361021039</v>
+        <v>0.06382574868124315</v>
       </c>
       <c r="D4">
-        <v>0.02331908137511239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04763901412829618</v>
+      </c>
+      <c r="E4">
+        <v>0.08719807251516459</v>
+      </c>
+      <c r="F4">
+        <v>-0.04625721982477766</v>
+      </c>
+      <c r="G4">
+        <v>-0.09577427900049952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03974768821548023</v>
+        <v>0.03499573731820388</v>
       </c>
       <c r="C6">
-        <v>-0.03732367312554568</v>
+        <v>0.02817202434073982</v>
       </c>
       <c r="D6">
-        <v>0.02143698907006223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05415502010545044</v>
+      </c>
+      <c r="E6">
+        <v>0.08931339528327899</v>
+      </c>
+      <c r="F6">
+        <v>-0.0338096746220301</v>
+      </c>
+      <c r="G6">
+        <v>-0.07193819242714967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02319959940774727</v>
+        <v>0.01865632787884507</v>
       </c>
       <c r="C7">
-        <v>-0.04460816117693259</v>
+        <v>0.03821269638927264</v>
       </c>
       <c r="D7">
-        <v>-0.01254784161440312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03083823058649505</v>
+      </c>
+      <c r="E7">
+        <v>0.06515561485553494</v>
+      </c>
+      <c r="F7">
+        <v>-0.07541967524184885</v>
+      </c>
+      <c r="G7">
+        <v>-0.09438469250658513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006091471708143456</v>
+        <v>0.003529890832762206</v>
       </c>
       <c r="C8">
-        <v>-0.03657742672697025</v>
+        <v>0.03254220460255462</v>
       </c>
       <c r="D8">
-        <v>0.02465614737375745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02920130152013705</v>
+      </c>
+      <c r="E8">
+        <v>0.05926990016741394</v>
+      </c>
+      <c r="F8">
+        <v>-0.02197084374045433</v>
+      </c>
+      <c r="G8">
+        <v>-0.04107691044022158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03454107451880185</v>
+        <v>0.03786859947965966</v>
       </c>
       <c r="C9">
-        <v>-0.04763973448306461</v>
+        <v>0.05093515351692809</v>
       </c>
       <c r="D9">
-        <v>0.008708739965130576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03362185214059381</v>
+      </c>
+      <c r="E9">
+        <v>0.07322246576349516</v>
+      </c>
+      <c r="F9">
+        <v>-0.05851483613868453</v>
+      </c>
+      <c r="G9">
+        <v>-0.08748510150069867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07641654572021661</v>
+        <v>0.1016949878093153</v>
       </c>
       <c r="C10">
-        <v>0.1873700188751067</v>
+        <v>-0.1962220091646492</v>
       </c>
       <c r="D10">
-        <v>-0.01019473409660602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01516258845052564</v>
+      </c>
+      <c r="E10">
+        <v>0.03988682386881278</v>
+      </c>
+      <c r="F10">
+        <v>-0.01860741375347432</v>
+      </c>
+      <c r="G10">
+        <v>-0.03099440550965635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04266479952027757</v>
+        <v>0.03717297529747587</v>
       </c>
       <c r="C11">
-        <v>-0.05057979879186094</v>
+        <v>0.04757737812125327</v>
       </c>
       <c r="D11">
-        <v>0.008756774738229807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0291597087909518</v>
+      </c>
+      <c r="E11">
+        <v>0.02620901501383088</v>
+      </c>
+      <c r="F11">
+        <v>-0.04530639979436366</v>
+      </c>
+      <c r="G11">
+        <v>-0.06940387515086963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04440732236800261</v>
+        <v>0.03901467009518188</v>
       </c>
       <c r="C12">
-        <v>-0.04702695562744325</v>
+        <v>0.04549298725988176</v>
       </c>
       <c r="D12">
-        <v>-0.001192058326178662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02348688149267087</v>
+      </c>
+      <c r="E12">
+        <v>0.03377907574622777</v>
+      </c>
+      <c r="F12">
+        <v>-0.04765018673332647</v>
+      </c>
+      <c r="G12">
+        <v>-0.06640272892097884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01474090095921803</v>
+        <v>0.01138555061610983</v>
       </c>
       <c r="C13">
-        <v>-0.05305999140391356</v>
+        <v>0.04169560941604836</v>
       </c>
       <c r="D13">
-        <v>0.002155038459980366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03904398412861696</v>
+      </c>
+      <c r="E13">
+        <v>0.09821411837352817</v>
+      </c>
+      <c r="F13">
+        <v>-0.06533179016421868</v>
+      </c>
+      <c r="G13">
+        <v>-0.0977516849138443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008293901570751779</v>
+        <v>0.004692736847008887</v>
       </c>
       <c r="C14">
-        <v>-0.04247505034630585</v>
+        <v>0.03346966002686588</v>
       </c>
       <c r="D14">
-        <v>-0.01376483301626812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02029020214390434</v>
+      </c>
+      <c r="E14">
+        <v>0.05109525109433483</v>
+      </c>
+      <c r="F14">
+        <v>-0.08092465279636091</v>
+      </c>
+      <c r="G14">
+        <v>-0.07910272405859313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001659131766342755</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00540157901485225</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007266341642383893</v>
+      </c>
+      <c r="E15">
+        <v>0.004848252711487392</v>
+      </c>
+      <c r="F15">
+        <v>-0.00588760183130676</v>
+      </c>
+      <c r="G15">
+        <v>-0.006773285953003212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03906667857566355</v>
+        <v>0.03460195887789106</v>
       </c>
       <c r="C16">
-        <v>-0.04953085246795032</v>
+        <v>0.04498287381754454</v>
       </c>
       <c r="D16">
-        <v>0.001950453352916186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02251500913694959</v>
+      </c>
+      <c r="E16">
+        <v>0.04057548281713674</v>
+      </c>
+      <c r="F16">
+        <v>-0.05434598087149342</v>
+      </c>
+      <c r="G16">
+        <v>-0.05665435873369386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02354302262666352</v>
+        <v>0.01747562296878277</v>
       </c>
       <c r="C19">
-        <v>-0.060644990697292</v>
+        <v>0.04415162666571502</v>
       </c>
       <c r="D19">
-        <v>0.0861691103596159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08694565433819494</v>
+      </c>
+      <c r="E19">
+        <v>0.1162517557858487</v>
+      </c>
+      <c r="F19">
+        <v>-0.06715723197891624</v>
+      </c>
+      <c r="G19">
+        <v>-0.04662177222495108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01722083958063471</v>
+        <v>0.01351073080137753</v>
       </c>
       <c r="C20">
-        <v>-0.04789665450767103</v>
+        <v>0.03903102718657979</v>
       </c>
       <c r="D20">
-        <v>0.003620921121421005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02810780162460647</v>
+      </c>
+      <c r="E20">
+        <v>0.07769946222485624</v>
+      </c>
+      <c r="F20">
+        <v>-0.05467508565882805</v>
+      </c>
+      <c r="G20">
+        <v>-0.06834688230663928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01099733127145874</v>
+        <v>0.009857149973639942</v>
       </c>
       <c r="C21">
-        <v>-0.05102425758846493</v>
+        <v>0.0411185941543472</v>
       </c>
       <c r="D21">
-        <v>0.03086725352676909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05224905951626376</v>
+      </c>
+      <c r="E21">
+        <v>0.1205555308369052</v>
+      </c>
+      <c r="F21">
+        <v>-0.0896320665498553</v>
+      </c>
+      <c r="G21">
+        <v>-0.104444840084288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.00133348596754598</v>
+        <v>0.002614573783270959</v>
       </c>
       <c r="C22">
-        <v>-0.0009934222584629677</v>
+        <v>0.02669923483884788</v>
       </c>
       <c r="D22">
-        <v>0.003446304022457635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04149681170755252</v>
+      </c>
+      <c r="E22">
+        <v>0.04287490330921351</v>
+      </c>
+      <c r="F22">
+        <v>0.009740732593834083</v>
+      </c>
+      <c r="G22">
+        <v>-0.05696242972397893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001339208415036515</v>
+        <v>0.002698635750107618</v>
       </c>
       <c r="C23">
-        <v>-0.0009939200589625557</v>
+        <v>0.026841019741833</v>
       </c>
       <c r="D23">
-        <v>0.00345049878721207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04105178551916632</v>
+      </c>
+      <c r="E23">
+        <v>0.04312042700620362</v>
+      </c>
+      <c r="F23">
+        <v>0.01003768014881412</v>
+      </c>
+      <c r="G23">
+        <v>-0.05695798595770753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0362503497554509</v>
+        <v>0.03484649659883597</v>
       </c>
       <c r="C24">
-        <v>-0.04997685422224581</v>
+        <v>0.05216535554627132</v>
       </c>
       <c r="D24">
-        <v>0.004370211820881899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02224013900832801</v>
+      </c>
+      <c r="E24">
+        <v>0.04175944230341321</v>
+      </c>
+      <c r="F24">
+        <v>-0.05587986933368622</v>
+      </c>
+      <c r="G24">
+        <v>-0.06911313105867778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04920028139048384</v>
+        <v>0.04404246607020868</v>
       </c>
       <c r="C25">
-        <v>-0.06057909700276274</v>
+        <v>0.05601476355932138</v>
       </c>
       <c r="D25">
-        <v>-0.007248569266393358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02083650928420711</v>
+      </c>
+      <c r="E25">
+        <v>0.03117306645887453</v>
+      </c>
+      <c r="F25">
+        <v>-0.04747606334772492</v>
+      </c>
+      <c r="G25">
+        <v>-0.08068190975610207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01650443016787997</v>
+        <v>0.0150836210050798</v>
       </c>
       <c r="C26">
-        <v>-0.01747789711745075</v>
+        <v>0.01708601480913558</v>
       </c>
       <c r="D26">
-        <v>-0.002320599031362332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02153032298628962</v>
+      </c>
+      <c r="E26">
+        <v>0.05192084863742345</v>
+      </c>
+      <c r="F26">
+        <v>-0.06128778488360913</v>
+      </c>
+      <c r="G26">
+        <v>-0.0488713163396888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09203367793525022</v>
+        <v>0.1376832529378346</v>
       </c>
       <c r="C28">
-        <v>0.246005302876124</v>
+        <v>-0.2525787751957417</v>
       </c>
       <c r="D28">
-        <v>-0.01085282659263704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0313657636940902</v>
+      </c>
+      <c r="E28">
+        <v>0.0553678358066775</v>
+      </c>
+      <c r="F28">
+        <v>-0.02381914961607384</v>
+      </c>
+      <c r="G28">
+        <v>-0.04714449701516139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007144288865019699</v>
+        <v>0.005390366998832933</v>
       </c>
       <c r="C29">
-        <v>-0.03427251668268497</v>
+        <v>0.02984462500159129</v>
       </c>
       <c r="D29">
-        <v>-0.01889232097579823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01339782629586143</v>
+      </c>
+      <c r="E29">
+        <v>0.04848532988271039</v>
+      </c>
+      <c r="F29">
+        <v>-0.06872522461383494</v>
+      </c>
+      <c r="G29">
+        <v>-0.08347808275331034</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04528536127868481</v>
+        <v>0.04102136849306415</v>
       </c>
       <c r="C30">
-        <v>-0.05323032051199164</v>
+        <v>0.05625044162129229</v>
       </c>
       <c r="D30">
-        <v>0.0649565819020814</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09456205531786693</v>
+      </c>
+      <c r="E30">
+        <v>0.08124648373971613</v>
+      </c>
+      <c r="F30">
+        <v>-0.07845104485092821</v>
+      </c>
+      <c r="G30">
+        <v>-0.06872470057067498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05838545140757063</v>
+        <v>0.05709131735485945</v>
       </c>
       <c r="C31">
-        <v>-0.04532220849264816</v>
+        <v>0.06137919393585131</v>
       </c>
       <c r="D31">
-        <v>-0.0426487073741348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01955262255814723</v>
+      </c>
+      <c r="E31">
+        <v>0.0649618418148495</v>
+      </c>
+      <c r="F31">
+        <v>-0.02875055504276856</v>
+      </c>
+      <c r="G31">
+        <v>-0.08694717852767521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001003136645365932</v>
+        <v>0.004733733108091478</v>
       </c>
       <c r="C32">
-        <v>-0.04551924235156336</v>
+        <v>0.03576851746698397</v>
       </c>
       <c r="D32">
-        <v>0.0505417122928464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05370597860871261</v>
+      </c>
+      <c r="E32">
+        <v>0.05901192397918852</v>
+      </c>
+      <c r="F32">
+        <v>-0.06973090427833967</v>
+      </c>
+      <c r="G32">
+        <v>-0.06253384122895012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03171737241180601</v>
+        <v>0.02646584688900973</v>
       </c>
       <c r="C33">
-        <v>-0.05930076575714073</v>
+        <v>0.05289181033682907</v>
       </c>
       <c r="D33">
-        <v>0.03158512795702428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06486528752711253</v>
+      </c>
+      <c r="E33">
+        <v>0.09212438107898495</v>
+      </c>
+      <c r="F33">
+        <v>-0.07669124872579872</v>
+      </c>
+      <c r="G33">
+        <v>-0.09906410416025664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04664479385644378</v>
+        <v>0.04145035603697862</v>
       </c>
       <c r="C34">
-        <v>-0.06530534786314073</v>
+        <v>0.06340561777458163</v>
       </c>
       <c r="D34">
-        <v>0.01252237847656636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03612458914692604</v>
+      </c>
+      <c r="E34">
+        <v>0.01445501503318578</v>
+      </c>
+      <c r="F34">
+        <v>-0.05867122107734333</v>
+      </c>
+      <c r="G34">
+        <v>-0.07098229261756679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01651165388696631</v>
+        <v>0.01437010111811049</v>
       </c>
       <c r="C36">
-        <v>-0.01707877279887035</v>
+        <v>0.01334525528423102</v>
       </c>
       <c r="D36">
-        <v>-0.007406626012058679</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01972853113474268</v>
+      </c>
+      <c r="E36">
+        <v>0.05906165263645997</v>
+      </c>
+      <c r="F36">
+        <v>-0.05266424964412621</v>
+      </c>
+      <c r="G36">
+        <v>-0.06780601870421951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02990164134941932</v>
+        <v>0.02319630944967558</v>
       </c>
       <c r="C38">
-        <v>-0.03059338602932596</v>
+        <v>0.02352048913479045</v>
       </c>
       <c r="D38">
-        <v>-0.01932623241278845</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01804327368628655</v>
+      </c>
+      <c r="E38">
+        <v>0.05075260952266179</v>
+      </c>
+      <c r="F38">
+        <v>-0.04613300136459235</v>
+      </c>
+      <c r="G38">
+        <v>-0.04907096189337681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04727435834096477</v>
+        <v>0.04056344114220836</v>
       </c>
       <c r="C39">
-        <v>-0.06319352902958325</v>
+        <v>0.06298941002672964</v>
       </c>
       <c r="D39">
-        <v>0.01225415282870644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04655790611357188</v>
+      </c>
+      <c r="E39">
+        <v>0.04842321743047074</v>
+      </c>
+      <c r="F39">
+        <v>-0.07836044182730374</v>
+      </c>
+      <c r="G39">
+        <v>-0.06459691369526326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01152808862496647</v>
+        <v>0.01363086038832109</v>
       </c>
       <c r="C40">
-        <v>-0.04982674870111937</v>
+        <v>0.03723039187069362</v>
       </c>
       <c r="D40">
-        <v>0.01643454705671688</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02474919876740081</v>
+      </c>
+      <c r="E40">
+        <v>0.08465813343795156</v>
+      </c>
+      <c r="F40">
+        <v>-0.04069758934706946</v>
+      </c>
+      <c r="G40">
+        <v>-0.108176753085622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02236652864183768</v>
+        <v>0.01897232710022129</v>
       </c>
       <c r="C41">
-        <v>-0.01439998575704242</v>
+        <v>0.0105799344636755</v>
       </c>
       <c r="D41">
-        <v>-0.00334758716805058</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01259463210036184</v>
+      </c>
+      <c r="E41">
+        <v>0.05942062246463483</v>
+      </c>
+      <c r="F41">
+        <v>-0.04776012486442961</v>
+      </c>
+      <c r="G41">
+        <v>-0.05516244439494501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04100429768977643</v>
+        <v>0.02973728338263503</v>
       </c>
       <c r="C43">
-        <v>-0.03274231230929166</v>
+        <v>0.02427345410153469</v>
       </c>
       <c r="D43">
-        <v>0.02300306771052181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0407755346042265</v>
+      </c>
+      <c r="E43">
+        <v>0.07611405483347403</v>
+      </c>
+      <c r="F43">
+        <v>-0.04329487045931871</v>
+      </c>
+      <c r="G43">
+        <v>-0.08439500766808958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01412809137178002</v>
+        <v>0.01481378162380814</v>
       </c>
       <c r="C44">
-        <v>-0.06663477120379518</v>
+        <v>0.0477500411724475</v>
       </c>
       <c r="D44">
-        <v>0.004560838158222042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02974802771272443</v>
+      </c>
+      <c r="E44">
+        <v>0.08864348948690931</v>
+      </c>
+      <c r="F44">
+        <v>-0.06155415294211949</v>
+      </c>
+      <c r="G44">
+        <v>-0.05007141597478409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00877138796333809</v>
+        <v>0.009125719187108963</v>
       </c>
       <c r="C46">
-        <v>-0.02984681742235435</v>
+        <v>0.02987551656822619</v>
       </c>
       <c r="D46">
-        <v>-0.02036813413194116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.007781884007043847</v>
+      </c>
+      <c r="E46">
+        <v>0.05752359228110011</v>
+      </c>
+      <c r="F46">
+        <v>-0.0807554189045197</v>
+      </c>
+      <c r="G46">
+        <v>-0.08324221241498704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08536551825346275</v>
+        <v>0.08914285022100503</v>
       </c>
       <c r="C47">
-        <v>-0.0720441078587009</v>
+        <v>0.08172542794634884</v>
       </c>
       <c r="D47">
-        <v>-0.04017217722209693</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02727403393539354</v>
+      </c>
+      <c r="E47">
+        <v>0.06668108527208044</v>
+      </c>
+      <c r="F47">
+        <v>-0.02489176600314879</v>
+      </c>
+      <c r="G47">
+        <v>-0.07595136814763152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01932880338941983</v>
+        <v>0.01722711148522725</v>
       </c>
       <c r="C48">
-        <v>-0.01421531767979356</v>
+        <v>0.01544406120143826</v>
       </c>
       <c r="D48">
-        <v>-0.02345097616123962</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.006962956310925415</v>
+      </c>
+      <c r="E48">
+        <v>0.06893104547491355</v>
+      </c>
+      <c r="F48">
+        <v>-0.06702524465695199</v>
+      </c>
+      <c r="G48">
+        <v>-0.07659978731677106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08198860659381693</v>
+        <v>0.07084292877906292</v>
       </c>
       <c r="C50">
-        <v>-0.08324732897745687</v>
+        <v>0.07588766157355938</v>
       </c>
       <c r="D50">
-        <v>-0.04204655680277325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0109272526886052</v>
+      </c>
+      <c r="E50">
+        <v>0.0736984456154266</v>
+      </c>
+      <c r="F50">
+        <v>-0.002506102835720324</v>
+      </c>
+      <c r="G50">
+        <v>-0.09989157835123562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01595890338477288</v>
+        <v>0.0101484154622925</v>
       </c>
       <c r="C51">
-        <v>-0.04939804561456747</v>
+        <v>0.03192139304935605</v>
       </c>
       <c r="D51">
-        <v>0.03443719955540694</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05148544400284782</v>
+      </c>
+      <c r="E51">
+        <v>0.05195612830889204</v>
+      </c>
+      <c r="F51">
+        <v>-0.07133523831718407</v>
+      </c>
+      <c r="G51">
+        <v>-0.06147904928109873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08407858133174502</v>
+        <v>0.09627077664255533</v>
       </c>
       <c r="C53">
-        <v>-0.07601735377839312</v>
+        <v>0.08574427564270694</v>
       </c>
       <c r="D53">
-        <v>-0.06106937147449895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06105669074025263</v>
+      </c>
+      <c r="E53">
+        <v>0.05920921703824307</v>
+      </c>
+      <c r="F53">
+        <v>-0.02300192888731938</v>
+      </c>
+      <c r="G53">
+        <v>-0.07459840599430932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03401914652876463</v>
+        <v>0.02795039741369188</v>
       </c>
       <c r="C54">
-        <v>-0.03915006647786517</v>
+        <v>0.03333148107124629</v>
       </c>
       <c r="D54">
-        <v>-0.006531518052004863</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02061423057687537</v>
+      </c>
+      <c r="E54">
+        <v>0.0575476870175515</v>
+      </c>
+      <c r="F54">
+        <v>-0.07275415662286239</v>
+      </c>
+      <c r="G54">
+        <v>-0.08137589486008777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07777874808779607</v>
+        <v>0.08764275571992029</v>
       </c>
       <c r="C55">
-        <v>-0.05547494963559322</v>
+        <v>0.06853720771327788</v>
       </c>
       <c r="D55">
-        <v>-0.06680516740486525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06276031509918509</v>
+      </c>
+      <c r="E55">
+        <v>0.04099167892391137</v>
+      </c>
+      <c r="F55">
+        <v>-0.008399394488728494</v>
+      </c>
+      <c r="G55">
+        <v>-0.05356723683303292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1489014304049508</v>
+        <v>0.1505830139370658</v>
       </c>
       <c r="C56">
-        <v>-0.09017676443552239</v>
+        <v>0.1047306631871574</v>
       </c>
       <c r="D56">
-        <v>-0.05943299255127488</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05935360090421474</v>
+      </c>
+      <c r="E56">
+        <v>0.0400200187120965</v>
+      </c>
+      <c r="F56">
+        <v>0.01282799338280921</v>
+      </c>
+      <c r="G56">
+        <v>-0.02564201172798272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04111988548283573</v>
+        <v>0.02449697135012845</v>
       </c>
       <c r="C58">
-        <v>-0.0338427738669794</v>
+        <v>0.02739333349790639</v>
       </c>
       <c r="D58">
-        <v>0.6246411070627393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3686954103537596</v>
+      </c>
+      <c r="E58">
+        <v>0.6637647248913674</v>
+      </c>
+      <c r="F58">
+        <v>0.4275506162037233</v>
+      </c>
+      <c r="G58">
+        <v>0.4114255310831424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1304406368611468</v>
+        <v>0.144459437675004</v>
       </c>
       <c r="C59">
-        <v>0.1983861628848692</v>
+        <v>-0.1884294251491435</v>
       </c>
       <c r="D59">
-        <v>0.02408042758004232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02705912793694391</v>
+      </c>
+      <c r="E59">
+        <v>0.02876931315403024</v>
+      </c>
+      <c r="F59">
+        <v>-0.03070590138772132</v>
+      </c>
+      <c r="G59">
+        <v>0.01340007424788262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3083780542800947</v>
+        <v>0.2782338846934562</v>
       </c>
       <c r="C60">
-        <v>-0.1078672744624137</v>
+        <v>0.1084033757110929</v>
       </c>
       <c r="D60">
-        <v>0.1870016944069031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2686855598180008</v>
+      </c>
+      <c r="E60">
+        <v>-0.2348072182537973</v>
+      </c>
+      <c r="F60">
+        <v>0.07767912925766422</v>
+      </c>
+      <c r="G60">
+        <v>-0.0275556786704244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04455208285543861</v>
+        <v>0.04127650993994546</v>
       </c>
       <c r="C61">
-        <v>-0.06322661239610193</v>
+        <v>0.05983217818018617</v>
       </c>
       <c r="D61">
-        <v>0.007661090947517442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0378900057899416</v>
+      </c>
+      <c r="E61">
+        <v>0.05105614604643522</v>
+      </c>
+      <c r="F61">
+        <v>-0.05722521781072347</v>
+      </c>
+      <c r="G61">
+        <v>-0.07730909960294691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01674975246760715</v>
+        <v>0.01535764188724929</v>
       </c>
       <c r="C63">
-        <v>-0.03385471082657462</v>
+        <v>0.03113212220970229</v>
       </c>
       <c r="D63">
-        <v>-0.02479843935577175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01185446435702466</v>
+      </c>
+      <c r="E63">
+        <v>0.06052655925688749</v>
+      </c>
+      <c r="F63">
+        <v>-0.03887066820883835</v>
+      </c>
+      <c r="G63">
+        <v>-0.07793369443176297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05086845173053757</v>
+        <v>0.05590764174658654</v>
       </c>
       <c r="C64">
-        <v>-0.0463052129277281</v>
+        <v>0.05683639968941882</v>
       </c>
       <c r="D64">
-        <v>-0.004715245897949158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.00106506829030372</v>
+      </c>
+      <c r="E64">
+        <v>0.03687996201049943</v>
+      </c>
+      <c r="F64">
+        <v>-0.06270747018338985</v>
+      </c>
+      <c r="G64">
+        <v>-0.06542974644410474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0813883711275226</v>
+        <v>0.06552969308286277</v>
       </c>
       <c r="C65">
-        <v>-0.03116637897297497</v>
+        <v>0.02925244848531884</v>
       </c>
       <c r="D65">
-        <v>0.05415605216459265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0839548481807543</v>
+      </c>
+      <c r="E65">
+        <v>0.05831314376346929</v>
+      </c>
+      <c r="F65">
+        <v>-0.008844778756672262</v>
+      </c>
+      <c r="G65">
+        <v>-0.026061401914679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06306409860155512</v>
+        <v>0.05265396772826886</v>
       </c>
       <c r="C66">
-        <v>-0.08584880785788036</v>
+        <v>0.0800420933814254</v>
       </c>
       <c r="D66">
-        <v>0.0322760257924157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07106196412224422</v>
+      </c>
+      <c r="E66">
+        <v>0.05811523091155928</v>
+      </c>
+      <c r="F66">
+        <v>-0.07073416941838678</v>
+      </c>
+      <c r="G66">
+        <v>-0.08044277375539795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05169382123375141</v>
+        <v>0.04477831016916783</v>
       </c>
       <c r="C67">
-        <v>-0.03120102701544948</v>
+        <v>0.02851734151811029</v>
       </c>
       <c r="D67">
-        <v>-0.02612134463484108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.002914454796487343</v>
+      </c>
+      <c r="E67">
+        <v>0.02677550995225772</v>
+      </c>
+      <c r="F67">
+        <v>-0.03338435720886337</v>
+      </c>
+      <c r="G67">
+        <v>-0.03944918958730007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1280490980162403</v>
+        <v>0.151399135100321</v>
       </c>
       <c r="C68">
-        <v>0.2796788676608695</v>
+        <v>-0.2437881697182133</v>
       </c>
       <c r="D68">
-        <v>-0.008362673387524234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01698487697317006</v>
+      </c>
+      <c r="E68">
+        <v>0.03756292033725572</v>
+      </c>
+      <c r="F68">
+        <v>-0.001744243298907835</v>
+      </c>
+      <c r="G68">
+        <v>-0.03129618074834893</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09127210242613078</v>
+        <v>0.08680030191449874</v>
       </c>
       <c r="C69">
-        <v>-0.07239405134100546</v>
+        <v>0.08986123233271187</v>
       </c>
       <c r="D69">
-        <v>-0.05229356527833551</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01805450907646642</v>
+      </c>
+      <c r="E69">
+        <v>0.05247059907431274</v>
+      </c>
+      <c r="F69">
+        <v>-0.05760842262872244</v>
+      </c>
+      <c r="G69">
+        <v>-0.07948885692966295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1173469562267614</v>
+        <v>0.144463331325229</v>
       </c>
       <c r="C71">
-        <v>0.2547331064717506</v>
+        <v>-0.2408262094248766</v>
       </c>
       <c r="D71">
-        <v>0.01112782624119555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003597280212686943</v>
+      </c>
+      <c r="E71">
+        <v>0.05977812066751336</v>
+      </c>
+      <c r="F71">
+        <v>-0.01051065543736041</v>
+      </c>
+      <c r="G71">
+        <v>-0.05629273811215338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09264874380364753</v>
+        <v>0.10035057702413</v>
       </c>
       <c r="C72">
-        <v>-0.05464267936781374</v>
+        <v>0.05816683088198583</v>
       </c>
       <c r="D72">
-        <v>0.002362450302790921</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0259848580496604</v>
+      </c>
+      <c r="E72">
+        <v>0.02696414982177395</v>
+      </c>
+      <c r="F72">
+        <v>-0.03292448132190631</v>
+      </c>
+      <c r="G72">
+        <v>-0.07618868317135795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4037372578728957</v>
+        <v>0.3417619667233162</v>
       </c>
       <c r="C73">
-        <v>-0.03990590725839215</v>
+        <v>0.06878490229402769</v>
       </c>
       <c r="D73">
-        <v>0.4435318606444937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5345517646037775</v>
+      </c>
+      <c r="E73">
+        <v>-0.4290272313011813</v>
+      </c>
+      <c r="F73">
+        <v>0.2214382407397612</v>
+      </c>
+      <c r="G73">
+        <v>-0.006803882661924172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1042358327217358</v>
+        <v>0.1091392664238968</v>
       </c>
       <c r="C74">
-        <v>-0.09610643607949973</v>
+        <v>0.09523999649044382</v>
       </c>
       <c r="D74">
-        <v>-0.04314678268767166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04983315837522669</v>
+      </c>
+      <c r="E74">
+        <v>0.05978959355396372</v>
+      </c>
+      <c r="F74">
+        <v>0.01686586932975791</v>
+      </c>
+      <c r="G74">
+        <v>-0.05572854147707625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2535891214143995</v>
+        <v>0.2576261712627371</v>
       </c>
       <c r="C75">
-        <v>-0.1033017975115811</v>
+        <v>0.1311956012155214</v>
       </c>
       <c r="D75">
-        <v>-0.1384902549154499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1578551715552972</v>
+      </c>
+      <c r="E75">
+        <v>0.03729120087746488</v>
+      </c>
+      <c r="F75">
+        <v>0.05564833069441263</v>
+      </c>
+      <c r="G75">
+        <v>0.04041255443397589</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1146119344934229</v>
+        <v>0.128428031906167</v>
       </c>
       <c r="C76">
-        <v>-0.08100250364259136</v>
+        <v>0.09312590943887057</v>
       </c>
       <c r="D76">
-        <v>-0.07372619002478685</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08256748429232404</v>
+      </c>
+      <c r="E76">
+        <v>0.06417675312268288</v>
+      </c>
+      <c r="F76">
+        <v>-0.004792588400808265</v>
+      </c>
+      <c r="G76">
+        <v>-0.03788548856844752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0779162196226896</v>
+        <v>0.06365139145474243</v>
       </c>
       <c r="C77">
-        <v>-0.05217807405623228</v>
+        <v>0.06241613641574156</v>
       </c>
       <c r="D77">
-        <v>0.04647801289186298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0466767494755271</v>
+      </c>
+      <c r="E77">
+        <v>0.1018311470595494</v>
+      </c>
+      <c r="F77">
+        <v>-0.1721946520024961</v>
+      </c>
+      <c r="G77">
+        <v>0.09246803365739679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04910964448529216</v>
+        <v>0.04567546479143168</v>
       </c>
       <c r="C78">
-        <v>-0.04589652613106114</v>
+        <v>0.05586324086690678</v>
       </c>
       <c r="D78">
-        <v>0.01835008604516565</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05519834236632464</v>
+      </c>
+      <c r="E78">
+        <v>0.05736314757239899</v>
+      </c>
+      <c r="F78">
+        <v>-0.06166310933958592</v>
+      </c>
+      <c r="G78">
+        <v>-0.06473142933814649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0301436870636799</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04560142939407966</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07866369503764196</v>
+      </c>
+      <c r="E79">
+        <v>0.05693615824948441</v>
+      </c>
+      <c r="F79">
+        <v>0.02620191603358226</v>
+      </c>
+      <c r="G79">
+        <v>-0.04132319079383838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03833902705364416</v>
+        <v>0.02992195037800537</v>
       </c>
       <c r="C80">
-        <v>-0.04874997591724212</v>
+        <v>0.04989999786793175</v>
       </c>
       <c r="D80">
-        <v>0.03024960417125957</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03943340757804819</v>
+      </c>
+      <c r="E80">
+        <v>0.01975398721227333</v>
+      </c>
+      <c r="F80">
+        <v>-0.05336324598736432</v>
+      </c>
+      <c r="G80">
+        <v>0.001436486192050914</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1391121001825197</v>
+        <v>0.1394115372594745</v>
       </c>
       <c r="C81">
-        <v>-0.07580595663310595</v>
+        <v>0.09366823622243807</v>
       </c>
       <c r="D81">
-        <v>-0.1031237858092559</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1258769888686204</v>
+      </c>
+      <c r="E81">
+        <v>0.06426163643425399</v>
+      </c>
+      <c r="F81">
+        <v>0.03635584465122994</v>
+      </c>
+      <c r="G81">
+        <v>0.008102105158150437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1786707933112105</v>
+        <v>0.215318525597496</v>
       </c>
       <c r="C82">
-        <v>-0.0903010153458353</v>
+        <v>0.1548041892600895</v>
       </c>
       <c r="D82">
-        <v>-0.1849283025284695</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2488798810321004</v>
+      </c>
+      <c r="E82">
+        <v>-0.02803642470117453</v>
+      </c>
+      <c r="F82">
+        <v>-0.03679239559422907</v>
+      </c>
+      <c r="G82">
+        <v>-0.03939099095890143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03974056419550009</v>
+        <v>0.02711747399942181</v>
       </c>
       <c r="C83">
-        <v>-0.03087474653205489</v>
+        <v>0.0434542886285434</v>
       </c>
       <c r="D83">
-        <v>0.03751592959249997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02897272232314104</v>
+      </c>
+      <c r="E83">
+        <v>0.02870455491771255</v>
+      </c>
+      <c r="F83">
+        <v>-0.04678028493896395</v>
+      </c>
+      <c r="G83">
+        <v>-0.01003587004520715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000453445380976069</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0002146607278690657</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002093154934435349</v>
+      </c>
+      <c r="E84">
+        <v>0.002369871468594079</v>
+      </c>
+      <c r="F84">
+        <v>0.0009532406259738604</v>
+      </c>
+      <c r="G84">
+        <v>-0.002384719660885053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2230168690346133</v>
+        <v>0.2049617641897231</v>
       </c>
       <c r="C85">
-        <v>-0.09655896182041018</v>
+        <v>0.1134738379040446</v>
       </c>
       <c r="D85">
-        <v>-0.1657227380958839</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1225407461961218</v>
+      </c>
+      <c r="E85">
+        <v>-0.03097684420873331</v>
+      </c>
+      <c r="F85">
+        <v>0.1054671523261903</v>
+      </c>
+      <c r="G85">
+        <v>-0.002826802664959993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008215974092931785</v>
+        <v>0.01081970619941898</v>
       </c>
       <c r="C86">
-        <v>-0.0255058098349746</v>
+        <v>0.01821077856915178</v>
       </c>
       <c r="D86">
-        <v>0.03805122765331104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05236415223410934</v>
+      </c>
+      <c r="E86">
+        <v>0.07990278794265275</v>
+      </c>
+      <c r="F86">
+        <v>-0.0945315190731897</v>
+      </c>
+      <c r="G86">
+        <v>-0.07645594343017913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02478576907320609</v>
+        <v>0.02478682849098898</v>
       </c>
       <c r="C87">
-        <v>-0.005008688508501838</v>
+        <v>0.0128951781099838</v>
       </c>
       <c r="D87">
-        <v>0.07467350764539904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07439876630992517</v>
+      </c>
+      <c r="E87">
+        <v>0.1285300066246907</v>
+      </c>
+      <c r="F87">
+        <v>-0.07795027678118785</v>
+      </c>
+      <c r="G87">
+        <v>-0.01781725797781436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1083970509475055</v>
+        <v>0.09351623695760822</v>
       </c>
       <c r="C88">
-        <v>-0.07179586852731144</v>
+        <v>0.06154184817086764</v>
       </c>
       <c r="D88">
-        <v>-0.02645869719296587</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.00614925388852893</v>
+      </c>
+      <c r="E88">
+        <v>0.05299415003311818</v>
+      </c>
+      <c r="F88">
+        <v>-0.06548453538006081</v>
+      </c>
+      <c r="G88">
+        <v>-0.04307272214267431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1837784061588882</v>
+        <v>0.2203964469569539</v>
       </c>
       <c r="C89">
-        <v>0.3768267784352403</v>
+        <v>-0.3805634628616479</v>
       </c>
       <c r="D89">
-        <v>-0.03168926599842246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02667421398695432</v>
+      </c>
+      <c r="E89">
+        <v>0.06995764876952608</v>
+      </c>
+      <c r="F89">
+        <v>-0.09910925485066928</v>
+      </c>
+      <c r="G89">
+        <v>0.003192433371618517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1771685287103168</v>
+        <v>0.2004979608860886</v>
       </c>
       <c r="C90">
-        <v>0.3346944312936067</v>
+        <v>-0.3101090463894582</v>
       </c>
       <c r="D90">
-        <v>-0.04042809976740468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02747185906361918</v>
+      </c>
+      <c r="E90">
+        <v>0.0661617972863819</v>
+      </c>
+      <c r="F90">
+        <v>-0.03070693451963489</v>
+      </c>
+      <c r="G90">
+        <v>-0.01158709161637533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1897502153221718</v>
+        <v>0.1864947285723612</v>
       </c>
       <c r="C91">
-        <v>-0.1293406537708966</v>
+        <v>0.1442318806836094</v>
       </c>
       <c r="D91">
-        <v>-0.1293855014673594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1321702672253167</v>
+      </c>
+      <c r="E91">
+        <v>0.04212094154679799</v>
+      </c>
+      <c r="F91">
+        <v>0.01681438308649375</v>
+      </c>
+      <c r="G91">
+        <v>-0.001509351956396089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1609863703794284</v>
+        <v>0.1812324477767129</v>
       </c>
       <c r="C92">
-        <v>0.2852113034715358</v>
+        <v>-0.2901070978435047</v>
       </c>
       <c r="D92">
-        <v>-0.03624494247544999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02927839527279741</v>
+      </c>
+      <c r="E92">
+        <v>0.06796026826221507</v>
+      </c>
+      <c r="F92">
+        <v>-0.07040442085062464</v>
+      </c>
+      <c r="G92">
+        <v>-0.03366322307777905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1984871763179707</v>
+        <v>0.2220538673852684</v>
       </c>
       <c r="C93">
-        <v>0.3387479053751289</v>
+        <v>-0.3192541440280441</v>
       </c>
       <c r="D93">
-        <v>-0.04166975853190843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02230467596165681</v>
+      </c>
+      <c r="E93">
+        <v>0.04143397389719822</v>
+      </c>
+      <c r="F93">
+        <v>-0.005238201739685902</v>
+      </c>
+      <c r="G93">
+        <v>-0.04171451173577764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3338893345907291</v>
+        <v>0.3370132970301321</v>
       </c>
       <c r="C94">
-        <v>-0.1527171946436348</v>
+        <v>0.1881189185998965</v>
       </c>
       <c r="D94">
-        <v>-0.3521763967362906</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4034338583478688</v>
+      </c>
+      <c r="E94">
+        <v>-0.005096245184519556</v>
+      </c>
+      <c r="F94">
+        <v>0.1508308912309185</v>
+      </c>
+      <c r="G94">
+        <v>0.3988535204887823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1164793027707065</v>
+        <v>0.08605402218236301</v>
       </c>
       <c r="C95">
-        <v>-0.06443825965258011</v>
+        <v>0.06201467479087052</v>
       </c>
       <c r="D95">
-        <v>0.1925619616264834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1919495032468656</v>
+      </c>
+      <c r="E95">
+        <v>-0.07680369057244041</v>
+      </c>
+      <c r="F95">
+        <v>-0.694505138051665</v>
+      </c>
+      <c r="G95">
+        <v>0.5965378633972193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1952391755173256</v>
+        <v>0.1875365581005736</v>
       </c>
       <c r="C98">
-        <v>-0.01803042796091614</v>
+        <v>0.04610439291680783</v>
       </c>
       <c r="D98">
-        <v>0.1483784067249084</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2024423230074918</v>
+      </c>
+      <c r="E98">
+        <v>-0.1305517096524123</v>
+      </c>
+      <c r="F98">
+        <v>0.07636067588695621</v>
+      </c>
+      <c r="G98">
+        <v>-0.07360553907082684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006924373667083208</v>
+        <v>0.005385831583194538</v>
       </c>
       <c r="C101">
-        <v>-0.03429994826615836</v>
+        <v>0.02941712348942344</v>
       </c>
       <c r="D101">
-        <v>-0.01861801425116399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01326621180838124</v>
+      </c>
+      <c r="E101">
+        <v>0.04917264392378066</v>
+      </c>
+      <c r="F101">
+        <v>-0.06937104755107505</v>
+      </c>
+      <c r="G101">
+        <v>-0.08335362681035026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1250191789045162</v>
+        <v>0.1268141961404866</v>
       </c>
       <c r="C102">
-        <v>-0.06763439717020095</v>
+        <v>0.1000181399160244</v>
       </c>
       <c r="D102">
-        <v>-0.04718289513146596</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05636391344899565</v>
+      </c>
+      <c r="E102">
+        <v>-0.01450869958438882</v>
+      </c>
+      <c r="F102">
+        <v>-0.01922123633178637</v>
+      </c>
+      <c r="G102">
+        <v>0.01208972750930083</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
